--- a/EstimatedActiveCasesOverTimeByCounty/2021-01-29.xlsx
+++ b/EstimatedActiveCasesOverTimeByCounty/2021-01-29.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="314">
   <si>
-    <t>COVID-19 Active Cases by County, 12/11/2020 - 01/28/2021 at 3:00 PM CST</t>
+    <t>COVID-19 Active Cases by County, 12/11/2020 - 01/29/2021 at 3:00 PM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>Active Cases 01-28</t>
+  </si>
+  <si>
+    <t>Active Cases 01-29</t>
   </si>
   <si>
     <t/>
@@ -1116,6 +1119,7 @@
     <col min="48" max="48" width="12.0" customWidth="true"/>
     <col min="49" max="49" width="12.0" customWidth="true"/>
     <col min="50" max="50" width="12.0" customWidth="true"/>
+    <col min="51" max="51" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1279,13 +1283,16 @@
       <c r="AX3" t="s" s="10">
         <v>51</v>
       </c>
+      <c r="AY3" t="s" s="10">
+        <v>52</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" t="n">
         <v>261.0</v>
@@ -1430,14 +1437,17 @@
       </c>
       <c r="AX4" t="n">
         <v>533.0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>514.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5" t="n">
         <v>313.0</v>
@@ -1582,14 +1592,17 @@
       </c>
       <c r="AX5" t="n">
         <v>162.0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>181.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" t="n">
         <v>751.0</v>
@@ -1734,14 +1747,17 @@
       </c>
       <c r="AX6" t="n">
         <v>821.0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>820.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" t="n">
         <v>103.0</v>
@@ -1886,14 +1902,17 @@
       </c>
       <c r="AX7" t="n">
         <v>129.0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>134.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8" t="n">
         <v>45.0</v>
@@ -2038,14 +2057,17 @@
       </c>
       <c r="AX8" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" t="n">
         <v>32.0</v>
@@ -2190,14 +2212,17 @@
       </c>
       <c r="AX9" t="n">
         <v>24.0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" t="n">
         <v>210.0</v>
@@ -2342,14 +2367,17 @@
       </c>
       <c r="AX10" t="n">
         <v>335.0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>344.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C11" t="n">
         <v>77.0</v>
@@ -2494,14 +2522,17 @@
       </c>
       <c r="AX11" t="n">
         <v>106.0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>93.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C12" t="n">
         <v>118.0</v>
@@ -2646,14 +2677,17 @@
       </c>
       <c r="AX12" t="n">
         <v>22.0</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" t="n">
         <v>46.0</v>
@@ -2798,14 +2832,17 @@
       </c>
       <c r="AX13" t="n">
         <v>77.0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>80.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C14" t="n">
         <v>461.0</v>
@@ -2950,14 +2987,17 @@
       </c>
       <c r="AX14" t="n">
         <v>667.0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>658.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" t="n">
         <v>8.0</v>
@@ -3101,15 +3141,18 @@
         <v>2.0</v>
       </c>
       <c r="AX15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AY15" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C16" t="n">
         <v>171.0</v>
@@ -3254,14 +3297,17 @@
       </c>
       <c r="AX16" t="n">
         <v>284.0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>278.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C17" t="n">
         <v>1639.0</v>
@@ -3406,14 +3452,17 @@
       </c>
       <c r="AX17" t="n">
         <v>1768.0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>1761.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C18" t="n">
         <v>15750.0</v>
@@ -3558,14 +3607,17 @@
       </c>
       <c r="AX18" t="n">
         <v>30939.0</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>30336.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C19" t="n">
         <v>24.0</v>
@@ -3710,14 +3762,17 @@
       </c>
       <c r="AX19" t="n">
         <v>37.0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C20" t="n">
         <v>5.0</v>
@@ -3861,15 +3916,18 @@
         <v>0.0</v>
       </c>
       <c r="AX20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY20" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C21" t="n">
         <v>74.0</v>
@@ -4014,14 +4072,17 @@
       </c>
       <c r="AX21" t="n">
         <v>97.0</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>89.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C22" t="n">
         <v>482.0</v>
@@ -4166,14 +4227,17 @@
       </c>
       <c r="AX22" t="n">
         <v>355.0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>370.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C23" t="n">
         <v>2730.0</v>
@@ -4318,14 +4382,17 @@
       </c>
       <c r="AX23" t="n">
         <v>5397.0</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>5365.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C24" t="n">
         <v>854.0</v>
@@ -4470,14 +4537,17 @@
       </c>
       <c r="AX24" t="n">
         <v>1550.0</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>1551.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C25" t="n">
         <v>182.0</v>
@@ -4621,15 +4691,18 @@
         <v>35.0</v>
       </c>
       <c r="AX25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C26" t="n">
         <v>15.0</v>
@@ -4773,15 +4846,18 @@
         <v>14.0</v>
       </c>
       <c r="AX26" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AY26" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C27" t="n">
         <v>38.0</v>
@@ -4926,14 +5002,17 @@
       </c>
       <c r="AX27" t="n">
         <v>54.0</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C28" t="n">
         <v>429.0</v>
@@ -5078,14 +5157,17 @@
       </c>
       <c r="AX28" t="n">
         <v>418.0</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>423.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C29" t="n">
         <v>119.0</v>
@@ -5230,14 +5312,17 @@
       </c>
       <c r="AX29" t="n">
         <v>114.0</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>101.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C30" t="n">
         <v>311.0</v>
@@ -5382,14 +5467,17 @@
       </c>
       <c r="AX30" t="n">
         <v>191.0</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>212.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C31" t="n">
         <v>197.0</v>
@@ -5534,14 +5622,17 @@
       </c>
       <c r="AX31" t="n">
         <v>212.0</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>234.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C32" t="n">
         <v>51.0</v>
@@ -5686,14 +5777,17 @@
       </c>
       <c r="AX32" t="n">
         <v>91.0</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>98.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C33" t="n">
         <v>49.0</v>
@@ -5838,14 +5932,17 @@
       </c>
       <c r="AX33" t="n">
         <v>20.0</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C34" t="n">
         <v>2029.0</v>
@@ -5990,14 +6087,17 @@
       </c>
       <c r="AX34" t="n">
         <v>5155.0</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>5077.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C35" t="n">
         <v>71.0</v>
@@ -6142,14 +6242,17 @@
       </c>
       <c r="AX35" t="n">
         <v>146.0</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>155.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C36" t="n">
         <v>117.0</v>
@@ -6293,15 +6396,18 @@
         <v>23.0</v>
       </c>
       <c r="AX36" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AY36" t="n">
         <v>25.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C37" t="n">
         <v>83.0</v>
@@ -6446,14 +6552,17 @@
       </c>
       <c r="AX37" t="n">
         <v>95.0</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>94.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C38" t="n">
         <v>133.0</v>
@@ -6597,15 +6706,18 @@
         <v>30.0</v>
       </c>
       <c r="AX38" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="AY38" t="n">
         <v>27.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C39" t="n">
         <v>269.0</v>
@@ -6750,14 +6862,17 @@
       </c>
       <c r="AX39" t="n">
         <v>353.0</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>352.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C40" t="n">
         <v>214.0</v>
@@ -6902,14 +7017,17 @@
       </c>
       <c r="AX40" t="n">
         <v>90.0</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>75.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C41" t="n">
         <v>218.0</v>
@@ -7054,14 +7172,17 @@
       </c>
       <c r="AX41" t="n">
         <v>49.0</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>47.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C42" t="n">
         <v>63.0</v>
@@ -7206,14 +7327,17 @@
       </c>
       <c r="AX42" t="n">
         <v>15.0</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C43" t="n">
         <v>19.0</v>
@@ -7358,14 +7482,17 @@
       </c>
       <c r="AX43" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C44" t="n">
         <v>38.0</v>
@@ -7510,14 +7637,17 @@
       </c>
       <c r="AX44" t="n">
         <v>24.0</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C45" t="n">
         <v>12.0</v>
@@ -7662,14 +7792,17 @@
       </c>
       <c r="AX45" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C46" t="n">
         <v>3987.0</v>
@@ -7814,14 +7947,17 @@
       </c>
       <c r="AX46" t="n">
         <v>4626.0</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>4560.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C47" t="n">
         <v>104.0</v>
@@ -7966,14 +8102,17 @@
       </c>
       <c r="AX47" t="n">
         <v>19.0</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C48" t="n">
         <v>91.0</v>
@@ -8118,14 +8257,17 @@
       </c>
       <c r="AX48" t="n">
         <v>81.0</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>79.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C49" t="n">
         <v>667.0</v>
@@ -8270,14 +8412,17 @@
       </c>
       <c r="AX49" t="n">
         <v>718.0</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>651.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C50" t="n">
         <v>112.0</v>
@@ -8421,15 +8566,18 @@
         <v>10.0</v>
       </c>
       <c r="AX50" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AY50" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C51" t="n">
         <v>11.0</v>
@@ -8574,14 +8722,17 @@
       </c>
       <c r="AX51" t="n">
         <v>31.0</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C52" t="n">
         <v>249.0</v>
@@ -8726,14 +8877,17 @@
       </c>
       <c r="AX52" t="n">
         <v>110.0</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>118.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C53" t="n">
         <v>318.0</v>
@@ -8878,14 +9032,17 @@
       </c>
       <c r="AX53" t="n">
         <v>368.0</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>382.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C54" t="n">
         <v>30.0</v>
@@ -9029,15 +9186,18 @@
         <v>0.0</v>
       </c>
       <c r="AX54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY54" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C55" t="n">
         <v>0.0</v>
@@ -9182,14 +9342,17 @@
       </c>
       <c r="AX55" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C56" t="n">
         <v>8.0</v>
@@ -9334,14 +9497,17 @@
       </c>
       <c r="AX56" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C57" t="n">
         <v>40.0</v>
@@ -9485,15 +9651,18 @@
         <v>54.0</v>
       </c>
       <c r="AX57" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="AY57" t="n">
         <v>53.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C58" t="n">
         <v>44.0</v>
@@ -9638,14 +9807,17 @@
       </c>
       <c r="AX58" t="n">
         <v>26.0</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C59" t="n">
         <v>24.0</v>
@@ -9790,14 +9962,17 @@
       </c>
       <c r="AX59" t="n">
         <v>81.0</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>80.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C60" t="n">
         <v>25147.0</v>
@@ -9942,14 +10117,17 @@
       </c>
       <c r="AX60" t="n">
         <v>35167.0</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>35215.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B61" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C61" t="n">
         <v>161.0</v>
@@ -10094,14 +10272,17 @@
       </c>
       <c r="AX61" t="n">
         <v>54.0</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B62" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C62" t="n">
         <v>418.0</v>
@@ -10246,14 +10427,17 @@
       </c>
       <c r="AX62" t="n">
         <v>92.0</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>88.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B63" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C63" t="n">
         <v>25.0</v>
@@ -10398,14 +10582,17 @@
       </c>
       <c r="AX63" t="n">
         <v>40.0</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B64" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C64" t="n">
         <v>8213.0</v>
@@ -10550,14 +10737,17 @@
       </c>
       <c r="AX64" t="n">
         <v>14991.0</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>15221.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B65" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C65" t="n">
         <v>99.0</v>
@@ -10702,14 +10892,17 @@
       </c>
       <c r="AX65" t="n">
         <v>124.0</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>136.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B66" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C66" t="n">
         <v>19.0</v>
@@ -10853,15 +11046,18 @@
         <v>8.0</v>
       </c>
       <c r="AX66" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AY66" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B67" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C67" t="n">
         <v>44.0</v>
@@ -11006,14 +11202,17 @@
       </c>
       <c r="AX67" t="n">
         <v>135.0</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>141.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B68" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C68" t="n">
         <v>47.0</v>
@@ -11158,14 +11357,17 @@
       </c>
       <c r="AX68" t="n">
         <v>44.0</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B69" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C69" t="n">
         <v>86.0</v>
@@ -11310,14 +11512,17 @@
       </c>
       <c r="AX69" t="n">
         <v>110.0</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>107.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B70" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C70" t="n">
         <v>55.0</v>
@@ -11462,14 +11667,17 @@
       </c>
       <c r="AX70" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B71" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C71" t="n">
         <v>5924.0</v>
@@ -11614,14 +11822,17 @@
       </c>
       <c r="AX71" t="n">
         <v>1659.0</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>1463.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B72" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C72" t="n">
         <v>14.0</v>
@@ -11766,14 +11977,17 @@
       </c>
       <c r="AX72" t="n">
         <v>2.0</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B73" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C73" t="n">
         <v>856.0</v>
@@ -11918,14 +12132,17 @@
       </c>
       <c r="AX73" t="n">
         <v>734.0</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>766.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B74" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C74" t="n">
         <v>37353.0</v>
@@ -12070,14 +12287,17 @@
       </c>
       <c r="AX74" t="n">
         <v>35114.0</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>35197.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B75" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C75" t="n">
         <v>162.0</v>
@@ -12222,14 +12442,17 @@
       </c>
       <c r="AX75" t="n">
         <v>59.0</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B76" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C76" t="n">
         <v>77.0</v>
@@ -12374,14 +12597,17 @@
       </c>
       <c r="AX76" t="n">
         <v>100.0</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>94.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B77" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C77" t="n">
         <v>151.0</v>
@@ -12526,14 +12752,17 @@
       </c>
       <c r="AX77" t="n">
         <v>139.0</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>131.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B78" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C78" t="n">
         <v>193.0</v>
@@ -12678,14 +12907,17 @@
       </c>
       <c r="AX78" t="n">
         <v>138.0</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>145.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B79" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C79" t="n">
         <v>28.0</v>
@@ -12829,15 +13061,18 @@
         <v>15.0</v>
       </c>
       <c r="AX79" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AY79" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B80" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C80" t="n">
         <v>107.0</v>
@@ -12982,14 +13217,17 @@
       </c>
       <c r="AX80" t="n">
         <v>69.0</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>67.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B81" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C81" t="n">
         <v>0.0</v>
@@ -13133,15 +13371,18 @@
         <v>1.0</v>
       </c>
       <c r="AX81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY81" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B82" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C82" t="n">
         <v>7296.0</v>
@@ -13286,14 +13527,17 @@
       </c>
       <c r="AX82" t="n">
         <v>14163.0</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>14275.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B83" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C83" t="n">
         <v>24.0</v>
@@ -13438,14 +13682,17 @@
       </c>
       <c r="AX83" t="n">
         <v>90.0</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>89.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B84" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C84" t="n">
         <v>129.0</v>
@@ -13590,14 +13837,17 @@
       </c>
       <c r="AX84" t="n">
         <v>49.0</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B85" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C85" t="n">
         <v>107.0</v>
@@ -13742,14 +13992,17 @@
       </c>
       <c r="AX85" t="n">
         <v>103.0</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>113.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B86" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C86" t="n">
         <v>162.0</v>
@@ -13894,14 +14147,17 @@
       </c>
       <c r="AX86" t="n">
         <v>54.0</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B87" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C87" t="n">
         <v>2026.0</v>
@@ -14046,14 +14302,17 @@
       </c>
       <c r="AX87" t="n">
         <v>7874.0</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>7827.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B88" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C88" t="n">
         <v>27.0</v>
@@ -14197,15 +14456,18 @@
         <v>25.0</v>
       </c>
       <c r="AX88" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AY88" t="n">
         <v>26.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B89" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C89" t="n">
         <v>126.0</v>
@@ -14350,14 +14612,17 @@
       </c>
       <c r="AX89" t="n">
         <v>150.0</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>162.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B90" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C90" t="n">
         <v>0.0</v>
@@ -14501,15 +14766,18 @@
         <v>7.0</v>
       </c>
       <c r="AX90" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AY90" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B91" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C91" t="n">
         <v>2.0</v>
@@ -14654,14 +14922,17 @@
       </c>
       <c r="AX91" t="n">
         <v>37.0</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B92" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C92" t="n">
         <v>87.0</v>
@@ -14806,14 +15077,17 @@
       </c>
       <c r="AX92" t="n">
         <v>169.0</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>175.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B93" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C93" t="n">
         <v>355.0</v>
@@ -14958,14 +15232,17 @@
       </c>
       <c r="AX93" t="n">
         <v>119.0</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>113.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B94" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C94" t="n">
         <v>420.0</v>
@@ -15110,14 +15387,17 @@
       </c>
       <c r="AX94" t="n">
         <v>448.0</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>417.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B95" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C95" t="n">
         <v>2037.0</v>
@@ -15262,14 +15542,17 @@
       </c>
       <c r="AX95" t="n">
         <v>3360.0</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>3504.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B96" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C96" t="n">
         <v>179.0</v>
@@ -15414,14 +15697,17 @@
       </c>
       <c r="AX96" t="n">
         <v>15.0</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B97" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C97" t="n">
         <v>401.0</v>
@@ -15566,14 +15852,17 @@
       </c>
       <c r="AX97" t="n">
         <v>747.0</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>792.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B98" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C98" t="n">
         <v>440.0</v>
@@ -15717,15 +16006,18 @@
         <v>149.0</v>
       </c>
       <c r="AX98" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="AY98" t="n">
         <v>149.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B99" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C99" t="n">
         <v>91.0</v>
@@ -15870,14 +16162,17 @@
       </c>
       <c r="AX99" t="n">
         <v>69.0</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B100" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C100" t="n">
         <v>53.0</v>
@@ -16022,14 +16317,17 @@
       </c>
       <c r="AX100" t="n">
         <v>74.0</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B101" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C101" t="n">
         <v>112.0</v>
@@ -16173,15 +16471,18 @@
         <v>69.0</v>
       </c>
       <c r="AX101" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="AY101" t="n">
         <v>69.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B102" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C102" t="n">
         <v>13.0</v>
@@ -16326,14 +16627,17 @@
       </c>
       <c r="AX102" t="n">
         <v>3.0</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B103" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C103" t="n">
         <v>1162.0</v>
@@ -16478,14 +16782,17 @@
       </c>
       <c r="AX103" t="n">
         <v>775.0</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>910.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B104" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C104" t="n">
         <v>21091.0</v>
@@ -16630,14 +16937,17 @@
       </c>
       <c r="AX104" t="n">
         <v>47069.0</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>47713.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B105" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C105" t="n">
         <v>239.0</v>
@@ -16782,14 +17092,17 @@
       </c>
       <c r="AX105" t="n">
         <v>792.0</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>813.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B106" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C106" t="n">
         <v>61.0</v>
@@ -16933,15 +17246,18 @@
         <v>31.0</v>
       </c>
       <c r="AX106" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="AY106" t="n">
         <v>63.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B107" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C107" t="n">
         <v>13.0</v>
@@ -17086,14 +17402,17 @@
       </c>
       <c r="AX107" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B108" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C108" t="n">
         <v>982.0</v>
@@ -17238,14 +17557,17 @@
       </c>
       <c r="AX108" t="n">
         <v>2343.0</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>2358.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B109" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C109" t="n">
         <v>55.0</v>
@@ -17390,14 +17712,17 @@
       </c>
       <c r="AX109" t="n">
         <v>104.0</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>96.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B110" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C110" t="n">
         <v>1131.0</v>
@@ -17542,14 +17867,17 @@
       </c>
       <c r="AX110" t="n">
         <v>1777.0</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>1847.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B111" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C111" t="n">
         <v>2517.0</v>
@@ -17694,14 +18022,17 @@
       </c>
       <c r="AX111" t="n">
         <v>2068.0</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>2141.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B112" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C112" t="n">
         <v>327.0</v>
@@ -17846,14 +18177,17 @@
       </c>
       <c r="AX112" t="n">
         <v>175.0</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>154.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B113" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C113" t="n">
         <v>256.0</v>
@@ -17998,14 +18332,17 @@
       </c>
       <c r="AX113" t="n">
         <v>120.0</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>109.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B114" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C114" t="n">
         <v>280.0</v>
@@ -18149,15 +18486,18 @@
         <v>168.0</v>
       </c>
       <c r="AX114" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="AY114" t="n">
         <v>185.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B115" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C115" t="n">
         <v>225.0</v>
@@ -18302,14 +18642,17 @@
       </c>
       <c r="AX115" t="n">
         <v>116.0</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>127.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B116" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C116" t="n">
         <v>54.0</v>
@@ -18454,14 +18797,17 @@
       </c>
       <c r="AX116" t="n">
         <v>96.0</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>91.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B117" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C117" t="n">
         <v>594.0</v>
@@ -18606,14 +18952,17 @@
       </c>
       <c r="AX117" t="n">
         <v>204.0</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>209.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B118" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C118" t="n">
         <v>64.0</v>
@@ -18758,14 +19107,17 @@
       </c>
       <c r="AX118" t="n">
         <v>45.0</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C119" t="n">
         <v>321.0</v>
@@ -18910,14 +19262,17 @@
       </c>
       <c r="AX119" t="n">
         <v>884.0</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>947.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B120" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C120" t="n">
         <v>264.0</v>
@@ -19062,14 +19417,17 @@
       </c>
       <c r="AX120" t="n">
         <v>126.0</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>124.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B121" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C121" t="n">
         <v>0.0</v>
@@ -19214,14 +19572,17 @@
       </c>
       <c r="AX121" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AY121" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B122" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C122" t="n">
         <v>17.0</v>
@@ -19366,14 +19727,17 @@
       </c>
       <c r="AX122" t="n">
         <v>17.0</v>
+      </c>
+      <c r="AY122" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B123" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C123" t="n">
         <v>58.0</v>
@@ -19518,14 +19882,17 @@
       </c>
       <c r="AX123" t="n">
         <v>85.0</v>
+      </c>
+      <c r="AY123" t="n">
+        <v>109.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B124" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C124" t="n">
         <v>138.0</v>
@@ -19670,14 +20037,17 @@
       </c>
       <c r="AX124" t="n">
         <v>77.0</v>
+      </c>
+      <c r="AY124" t="n">
+        <v>79.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B125" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C125" t="n">
         <v>19.0</v>
@@ -19822,14 +20192,17 @@
       </c>
       <c r="AX125" t="n">
         <v>19.0</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B126" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C126" t="n">
         <v>2137.0</v>
@@ -19974,14 +20347,17 @@
       </c>
       <c r="AX126" t="n">
         <v>3434.0</v>
+      </c>
+      <c r="AY126" t="n">
+        <v>3427.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B127" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C127" t="n">
         <v>42.0</v>
@@ -20126,14 +20502,17 @@
       </c>
       <c r="AX127" t="n">
         <v>135.0</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>121.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B128" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C128" t="n">
         <v>248.0</v>
@@ -20278,14 +20657,17 @@
       </c>
       <c r="AX128" t="n">
         <v>472.0</v>
+      </c>
+      <c r="AY128" t="n">
+        <v>456.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B129" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C129" t="n">
         <v>846.0</v>
@@ -20430,14 +20812,17 @@
       </c>
       <c r="AX129" t="n">
         <v>666.0</v>
+      </c>
+      <c r="AY129" t="n">
+        <v>634.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B130" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C130" t="n">
         <v>658.0</v>
@@ -20582,14 +20967,17 @@
       </c>
       <c r="AX130" t="n">
         <v>193.0</v>
+      </c>
+      <c r="AY130" t="n">
+        <v>203.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B131" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C131" t="n">
         <v>44.0</v>
@@ -20734,14 +21122,17 @@
       </c>
       <c r="AX131" t="n">
         <v>51.0</v>
+      </c>
+      <c r="AY131" t="n">
+        <v>54.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B132" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C132" t="n">
         <v>524.0</v>
@@ -20886,14 +21277,17 @@
       </c>
       <c r="AX132" t="n">
         <v>553.0</v>
+      </c>
+      <c r="AY132" t="n">
+        <v>558.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B133" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C133" t="n">
         <v>120.0</v>
@@ -21038,14 +21432,17 @@
       </c>
       <c r="AX133" t="n">
         <v>167.0</v>
+      </c>
+      <c r="AY133" t="n">
+        <v>179.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B134" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C134" t="n">
         <v>2.0</v>
@@ -21189,15 +21586,18 @@
         <v>2.0</v>
       </c>
       <c r="AX134" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY134" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B135" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C135" t="n">
         <v>3.0</v>
@@ -21342,14 +21742,17 @@
       </c>
       <c r="AX135" t="n">
         <v>2.0</v>
+      </c>
+      <c r="AY135" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B136" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C136" t="n">
         <v>241.0</v>
@@ -21494,14 +21897,17 @@
       </c>
       <c r="AX136" t="n">
         <v>221.0</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>267.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B137" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C137" t="n">
         <v>6.0</v>
@@ -21646,14 +22052,17 @@
       </c>
       <c r="AX137" t="n">
         <v>24.0</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B138" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C138" t="n">
         <v>3.0</v>
@@ -21797,15 +22206,18 @@
         <v>4.0</v>
       </c>
       <c r="AX138" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AY138" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B139" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C139" t="n">
         <v>5.0</v>
@@ -21949,15 +22361,18 @@
         <v>22.0</v>
       </c>
       <c r="AX139" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="AY139" t="n">
         <v>33.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B140" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C140" t="n">
         <v>108.0</v>
@@ -22102,14 +22517,17 @@
       </c>
       <c r="AX140" t="n">
         <v>284.0</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>283.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B141" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C141" t="n">
         <v>4.0</v>
@@ -22253,15 +22671,18 @@
         <v>2.0</v>
       </c>
       <c r="AX141" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY141" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B142" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C142" t="n">
         <v>410.0</v>
@@ -22406,14 +22827,17 @@
       </c>
       <c r="AX142" t="n">
         <v>512.0</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>490.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B143" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C143" t="n">
         <v>354.0</v>
@@ -22558,14 +22982,17 @@
       </c>
       <c r="AX143" t="n">
         <v>86.0</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>75.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B144" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C144" t="n">
         <v>113.0</v>
@@ -22710,14 +23137,17 @@
       </c>
       <c r="AX144" t="n">
         <v>181.0</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>202.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B145" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C145" t="n">
         <v>76.0</v>
@@ -22862,14 +23292,17 @@
       </c>
       <c r="AX145" t="n">
         <v>62.0</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B146" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C146" t="n">
         <v>47.0</v>
@@ -23014,14 +23447,17 @@
       </c>
       <c r="AX146" t="n">
         <v>81.0</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>93.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B147" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C147" t="n">
         <v>123.0</v>
@@ -23166,14 +23602,17 @@
       </c>
       <c r="AX147" t="n">
         <v>157.0</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>169.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B148" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C148" t="n">
         <v>98.0</v>
@@ -23318,14 +23757,17 @@
       </c>
       <c r="AX148" t="n">
         <v>63.0</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>54.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B149" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C149" t="n">
         <v>203.0</v>
@@ -23470,14 +23912,17 @@
       </c>
       <c r="AX149" t="n">
         <v>494.0</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>489.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B150" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C150" t="n">
         <v>137.0</v>
@@ -23622,14 +24067,17 @@
       </c>
       <c r="AX150" t="n">
         <v>130.0</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>114.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B151" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C151" t="n">
         <v>53.0</v>
@@ -23774,14 +24222,17 @@
       </c>
       <c r="AX151" t="n">
         <v>26.0</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B152" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C152" t="n">
         <v>137.0</v>
@@ -23926,14 +24377,17 @@
       </c>
       <c r="AX152" t="n">
         <v>123.0</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>120.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B153" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C153" t="n">
         <v>133.0</v>
@@ -24078,14 +24532,17 @@
       </c>
       <c r="AX153" t="n">
         <v>168.0</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>167.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B154" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C154" t="n">
         <v>0.0</v>
@@ -24229,15 +24686,18 @@
         <v>0.0</v>
       </c>
       <c r="AX154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B155" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C155" t="n">
         <v>4535.0</v>
@@ -24382,14 +24842,17 @@
       </c>
       <c r="AX155" t="n">
         <v>1975.0</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>1920.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B156" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C156" t="n">
         <v>83.0</v>
@@ -24534,14 +24997,17 @@
       </c>
       <c r="AX156" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B157" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C157" t="n">
         <v>41.0</v>
@@ -24686,14 +25152,17 @@
       </c>
       <c r="AX157" t="n">
         <v>38.0</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B158" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C158" t="n">
         <v>1147.0</v>
@@ -24838,14 +25307,17 @@
       </c>
       <c r="AX158" t="n">
         <v>868.0</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>837.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B159" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C159" t="n">
         <v>7.0</v>
@@ -24989,15 +25461,18 @@
         <v>6.0</v>
       </c>
       <c r="AX159" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AY159" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B160" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C160" t="n">
         <v>62.0</v>
@@ -25142,14 +25617,17 @@
       </c>
       <c r="AX160" t="n">
         <v>44.0</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B161" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C161" t="n">
         <v>14.0</v>
@@ -25294,14 +25772,17 @@
       </c>
       <c r="AX161" t="n">
         <v>92.0</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>96.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B162" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C162" t="n">
         <v>88.0</v>
@@ -25445,15 +25926,18 @@
         <v>0.0</v>
       </c>
       <c r="AX162" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY162" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B163" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C163" t="n">
         <v>31.0</v>
@@ -25597,15 +26081,18 @@
         <v>21.0</v>
       </c>
       <c r="AX163" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AY163" t="n">
         <v>26.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B164" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C164" t="n">
         <v>83.0</v>
@@ -25750,14 +26237,17 @@
       </c>
       <c r="AX164" t="n">
         <v>151.0</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>134.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B165" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C165" t="n">
         <v>632.0</v>
@@ -25902,14 +26392,17 @@
       </c>
       <c r="AX165" t="n">
         <v>1320.0</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>1717.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B166" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C166" t="n">
         <v>148.0</v>
@@ -26054,14 +26547,17 @@
       </c>
       <c r="AX166" t="n">
         <v>172.0</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>201.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B167" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C167" t="n">
         <v>17.0</v>
@@ -26205,15 +26701,18 @@
         <v>23.0</v>
       </c>
       <c r="AX167" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AY167" t="n">
         <v>26.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B168" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C168" t="n">
         <v>1564.0</v>
@@ -26358,14 +26857,17 @@
       </c>
       <c r="AX168" t="n">
         <v>2564.0</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>2563.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B169" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C169" t="n">
         <v>123.0</v>
@@ -26510,14 +27012,17 @@
       </c>
       <c r="AX169" t="n">
         <v>70.0</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>79.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B170" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C170" t="n">
         <v>56.0</v>
@@ -26662,14 +27167,17 @@
       </c>
       <c r="AX170" t="n">
         <v>100.0</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>96.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B171" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C171" t="n">
         <v>83.0</v>
@@ -26814,14 +27322,17 @@
       </c>
       <c r="AX171" t="n">
         <v>21.0</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B172" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C172" t="n">
         <v>89.0</v>
@@ -26966,14 +27477,17 @@
       </c>
       <c r="AX172" t="n">
         <v>31.0</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B173" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C173" t="n">
         <v>8150.0</v>
@@ -27118,14 +27632,17 @@
       </c>
       <c r="AX173" t="n">
         <v>20102.0</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>20282.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B174" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C174" t="n">
         <v>193.0</v>
@@ -27270,14 +27787,17 @@
       </c>
       <c r="AX174" t="n">
         <v>34.0</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B175" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C175" t="n">
         <v>22.0</v>
@@ -27422,14 +27942,17 @@
       </c>
       <c r="AX175" t="n">
         <v>101.0</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>103.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B176" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C176" t="n">
         <v>26.0</v>
@@ -27573,15 +28096,18 @@
         <v>2.0</v>
       </c>
       <c r="AX176" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY176" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B177" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C177" t="n">
         <v>204.0</v>
@@ -27726,14 +28252,17 @@
       </c>
       <c r="AX177" t="n">
         <v>267.0</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>286.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B178" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C178" t="n">
         <v>251.0</v>
@@ -27878,14 +28407,17 @@
       </c>
       <c r="AX178" t="n">
         <v>704.0</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>669.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B179" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C179" t="n">
         <v>26.0</v>
@@ -28030,14 +28562,17 @@
       </c>
       <c r="AX179" t="n">
         <v>36.0</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B180" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C180" t="n">
         <v>265.0</v>
@@ -28182,14 +28717,17 @@
       </c>
       <c r="AX180" t="n">
         <v>251.0</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>245.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B181" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C181" t="n">
         <v>2099.0</v>
@@ -28334,14 +28872,17 @@
       </c>
       <c r="AX181" t="n">
         <v>2872.0</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>2610.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B182" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C182" t="n">
         <v>247.0</v>
@@ -28486,14 +29027,17 @@
       </c>
       <c r="AX182" t="n">
         <v>43.0</v>
+      </c>
+      <c r="AY182" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C183" t="n">
         <v>48.0</v>
@@ -28637,15 +29181,18 @@
         <v>21.0</v>
       </c>
       <c r="AX183" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AY183" t="n">
         <v>26.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B184" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C184" t="n">
         <v>1991.0</v>
@@ -28790,14 +29337,17 @@
       </c>
       <c r="AX184" t="n">
         <v>808.0</v>
+      </c>
+      <c r="AY184" t="n">
+        <v>985.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B185" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C185" t="n">
         <v>121.0</v>
@@ -28942,14 +29492,17 @@
       </c>
       <c r="AX185" t="n">
         <v>104.0</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>94.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B186" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C186" t="n">
         <v>92.0</v>
@@ -29094,14 +29647,17 @@
       </c>
       <c r="AX186" t="n">
         <v>126.0</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>143.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B187" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C187" t="n">
         <v>611.0</v>
@@ -29246,14 +29802,17 @@
       </c>
       <c r="AX187" t="n">
         <v>463.0</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>489.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B188" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C188" t="n">
         <v>160.0</v>
@@ -29398,14 +29957,17 @@
       </c>
       <c r="AX188" t="n">
         <v>30.0</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B189" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C189" t="n">
         <v>160.0</v>
@@ -29550,14 +30112,17 @@
       </c>
       <c r="AX189" t="n">
         <v>10.0</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B190" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C190" t="n">
         <v>303.0</v>
@@ -29702,14 +30267,17 @@
       </c>
       <c r="AX190" t="n">
         <v>312.0</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>313.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B191" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C191" t="n">
         <v>3236.0</v>
@@ -29854,14 +30422,17 @@
       </c>
       <c r="AX191" t="n">
         <v>1174.0</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>1145.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B192" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C192" t="n">
         <v>118.0</v>
@@ -30006,14 +30577,17 @@
       </c>
       <c r="AX192" t="n">
         <v>47.0</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>65.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B193" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C193" t="n">
         <v>220.0</v>
@@ -30158,14 +30732,17 @@
       </c>
       <c r="AX193" t="n">
         <v>235.0</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>247.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B194" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C194" t="n">
         <v>3899.0</v>
@@ -30310,14 +30887,17 @@
       </c>
       <c r="AX194" t="n">
         <v>1630.0</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>1571.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B195" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C195" t="n">
         <v>4.0</v>
@@ -30461,15 +31041,18 @@
         <v>1.0</v>
       </c>
       <c r="AX195" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY195" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B196" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C196" t="n">
         <v>8.0</v>
@@ -30613,15 +31196,18 @@
         <v>2.0</v>
       </c>
       <c r="AX196" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AY196" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B197" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C197" t="n">
         <v>49.0</v>
@@ -30766,14 +31352,17 @@
       </c>
       <c r="AX197" t="n">
         <v>17.0</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B198" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C198" t="n">
         <v>255.0</v>
@@ -30918,14 +31507,17 @@
       </c>
       <c r="AX198" t="n">
         <v>100.0</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>79.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B199" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C199" t="n">
         <v>44.0</v>
@@ -31070,14 +31662,17 @@
       </c>
       <c r="AX199" t="n">
         <v>64.0</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B200" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C200" t="n">
         <v>7.0</v>
@@ -31221,15 +31816,18 @@
         <v>6.0</v>
       </c>
       <c r="AX200" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AY200" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B201" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C201" t="n">
         <v>121.0</v>
@@ -31374,14 +31972,17 @@
       </c>
       <c r="AX201" t="n">
         <v>111.0</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>105.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B202" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C202" t="n">
         <v>387.0</v>
@@ -31526,14 +32127,17 @@
       </c>
       <c r="AX202" t="n">
         <v>497.0</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>525.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B203" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C203" t="n">
         <v>78.0</v>
@@ -31678,14 +32282,17 @@
       </c>
       <c r="AX203" t="n">
         <v>37.0</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B204" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C204" t="n">
         <v>292.0</v>
@@ -31830,14 +32437,17 @@
       </c>
       <c r="AX204" t="n">
         <v>352.0</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>366.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B205" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C205" t="n">
         <v>38.0</v>
@@ -31981,15 +32591,18 @@
         <v>0.0</v>
       </c>
       <c r="AX205" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY205" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B206" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C206" t="n">
         <v>49.0</v>
@@ -32133,15 +32746,18 @@
         <v>25.0</v>
       </c>
       <c r="AX206" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AY206" t="n">
         <v>30.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B207" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C207" t="n">
         <v>41.0</v>
@@ -32286,14 +32902,17 @@
       </c>
       <c r="AX207" t="n">
         <v>125.0</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>121.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B208" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C208" t="n">
         <v>121.0</v>
@@ -32437,15 +33056,18 @@
         <v>304.0</v>
       </c>
       <c r="AX208" t="n">
+        <v>304.0</v>
+      </c>
+      <c r="AY208" t="n">
         <v>304.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B209" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C209" t="n">
         <v>36.0</v>
@@ -32590,14 +33212,17 @@
       </c>
       <c r="AX209" t="n">
         <v>80.0</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>86.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B210" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C210" t="n">
         <v>18.0</v>
@@ -32742,14 +33367,17 @@
       </c>
       <c r="AX210" t="n">
         <v>22.0</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B211" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C211" t="n">
         <v>97.0</v>
@@ -32894,14 +33522,17 @@
       </c>
       <c r="AX211" t="n">
         <v>51.0</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B212" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C212" t="n">
         <v>6.0</v>
@@ -33046,14 +33677,17 @@
       </c>
       <c r="AX212" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AY212" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B213" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C213" t="n">
         <v>71.0</v>
@@ -33198,14 +33832,17 @@
       </c>
       <c r="AX213" t="n">
         <v>143.0</v>
+      </c>
+      <c r="AY213" t="n">
+        <v>144.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B214" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C214" t="n">
         <v>9.0</v>
@@ -33349,15 +33986,18 @@
         <v>6.0</v>
       </c>
       <c r="AX214" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AY214" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B215" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C215" t="n">
         <v>4596.0</v>
@@ -33502,14 +34142,17 @@
       </c>
       <c r="AX215" t="n">
         <v>5718.0</v>
+      </c>
+      <c r="AY215" t="n">
+        <v>5980.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B216" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C216" t="n">
         <v>48.0</v>
@@ -33654,14 +34297,17 @@
       </c>
       <c r="AX216" t="n">
         <v>25.0</v>
+      </c>
+      <c r="AY216" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B217" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C217" t="n">
         <v>654.0</v>
@@ -33806,14 +34452,17 @@
       </c>
       <c r="AX217" t="n">
         <v>1174.0</v>
+      </c>
+      <c r="AY217" t="n">
+        <v>1266.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B218" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C218" t="n">
         <v>84.0</v>
@@ -33958,14 +34607,17 @@
       </c>
       <c r="AX218" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B219" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C219" t="n">
         <v>18.0</v>
@@ -34110,14 +34762,17 @@
       </c>
       <c r="AX219" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AY219" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B220" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C220" t="n">
         <v>5.0</v>
@@ -34261,15 +34916,18 @@
         <v>1.0</v>
       </c>
       <c r="AX220" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY220" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B221" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C221" t="n">
         <v>58.0</v>
@@ -34414,14 +35072,17 @@
       </c>
       <c r="AX221" t="n">
         <v>40.0</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B222" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C222" t="n">
         <v>159.0</v>
@@ -34566,14 +35227,17 @@
       </c>
       <c r="AX222" t="n">
         <v>41.0</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>42.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B223" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C223" t="n">
         <v>31380.0</v>
@@ -34718,14 +35382,17 @@
       </c>
       <c r="AX223" t="n">
         <v>50880.0</v>
+      </c>
+      <c r="AY223" t="n">
+        <v>50185.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B224" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C224" t="n">
         <v>2592.0</v>
@@ -34870,14 +35537,17 @@
       </c>
       <c r="AX224" t="n">
         <v>2392.0</v>
+      </c>
+      <c r="AY224" t="n">
+        <v>2351.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B225" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C225" t="n">
         <v>11.0</v>
@@ -35021,15 +35691,18 @@
         <v>9.0</v>
       </c>
       <c r="AX225" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AY225" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B226" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C226" t="n">
         <v>312.0</v>
@@ -35174,14 +35847,17 @@
       </c>
       <c r="AX226" t="n">
         <v>183.0</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>102.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B227" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C227" t="n">
         <v>0.0</v>
@@ -35325,15 +36001,18 @@
         <v>5.0</v>
       </c>
       <c r="AX227" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AY227" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B228" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C228" t="n">
         <v>179.0</v>
@@ -35478,14 +36157,17 @@
       </c>
       <c r="AX228" t="n">
         <v>366.0</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>372.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B229" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C229" t="n">
         <v>1510.0</v>
@@ -35630,14 +36312,17 @@
       </c>
       <c r="AX229" t="n">
         <v>1203.0</v>
+      </c>
+      <c r="AY229" t="n">
+        <v>1121.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B230" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C230" t="n">
         <v>3091.0</v>
@@ -35782,14 +36467,17 @@
       </c>
       <c r="AX230" t="n">
         <v>5333.0</v>
+      </c>
+      <c r="AY230" t="n">
+        <v>5298.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B231" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C231" t="n">
         <v>17.0</v>
@@ -35934,14 +36622,17 @@
       </c>
       <c r="AX231" t="n">
         <v>79.0</v>
+      </c>
+      <c r="AY231" t="n">
+        <v>76.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B232" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C232" t="n">
         <v>124.0</v>
@@ -36086,14 +36777,17 @@
       </c>
       <c r="AX232" t="n">
         <v>61.0</v>
+      </c>
+      <c r="AY232" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B233" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C233" t="n">
         <v>165.0</v>
@@ -36238,14 +36932,17 @@
       </c>
       <c r="AX233" t="n">
         <v>460.0</v>
+      </c>
+      <c r="AY233" t="n">
+        <v>480.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B234" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C234" t="n">
         <v>25.0</v>
@@ -36389,15 +37086,18 @@
         <v>67.0</v>
       </c>
       <c r="AX234" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="AY234" t="n">
         <v>65.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B235" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C235" t="n">
         <v>70.0</v>
@@ -36542,14 +37242,17 @@
       </c>
       <c r="AX235" t="n">
         <v>267.0</v>
+      </c>
+      <c r="AY235" t="n">
+        <v>254.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B236" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C236" t="n">
         <v>323.0</v>
@@ -36693,15 +37396,18 @@
         <v>1211.0</v>
       </c>
       <c r="AX236" t="n">
+        <v>1152.0</v>
+      </c>
+      <c r="AY236" t="n">
         <v>1152.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B237" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C237" t="n">
         <v>1023.0</v>
@@ -36846,14 +37552,17 @@
       </c>
       <c r="AX237" t="n">
         <v>1221.0</v>
+      </c>
+      <c r="AY237" t="n">
+        <v>1272.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B238" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C238" t="n">
         <v>243.0</v>
@@ -36998,14 +37707,17 @@
       </c>
       <c r="AX238" t="n">
         <v>513.0</v>
+      </c>
+      <c r="AY238" t="n">
+        <v>577.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B239" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C239" t="n">
         <v>230.0</v>
@@ -37150,14 +37862,17 @@
       </c>
       <c r="AX239" t="n">
         <v>716.0</v>
+      </c>
+      <c r="AY239" t="n">
+        <v>690.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B240" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C240" t="n">
         <v>135.0</v>
@@ -37302,14 +38017,17 @@
       </c>
       <c r="AX240" t="n">
         <v>279.0</v>
+      </c>
+      <c r="AY240" t="n">
+        <v>264.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B241" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C241" t="n">
         <v>125.0</v>
@@ -37454,14 +38172,17 @@
       </c>
       <c r="AX241" t="n">
         <v>74.0</v>
+      </c>
+      <c r="AY241" t="n">
+        <v>77.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B242" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C242" t="n">
         <v>189.0</v>
@@ -37606,14 +38327,17 @@
       </c>
       <c r="AX242" t="n">
         <v>129.0</v>
+      </c>
+      <c r="AY242" t="n">
+        <v>137.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B243" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C243" t="n">
         <v>3689.0</v>
@@ -37758,14 +38482,17 @@
       </c>
       <c r="AX243" t="n">
         <v>7670.0</v>
+      </c>
+      <c r="AY243" t="n">
+        <v>7604.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B244" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C244" t="n">
         <v>131.0</v>
@@ -37910,14 +38637,17 @@
       </c>
       <c r="AX244" t="n">
         <v>344.0</v>
+      </c>
+      <c r="AY244" t="n">
+        <v>341.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B245" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C245" t="n">
         <v>79.0</v>
@@ -38062,14 +38792,17 @@
       </c>
       <c r="AX245" t="n">
         <v>38.0</v>
+      </c>
+      <c r="AY245" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B246" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C246" t="n">
         <v>2591.0</v>
@@ -38214,14 +38947,17 @@
       </c>
       <c r="AX246" t="n">
         <v>2267.0</v>
+      </c>
+      <c r="AY246" t="n">
+        <v>1972.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B247" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C247" t="n">
         <v>41.0</v>
@@ -38365,15 +39101,18 @@
         <v>6.0</v>
       </c>
       <c r="AX247" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AY247" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B248" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C248" t="n">
         <v>146.0</v>
@@ -38518,14 +39257,17 @@
       </c>
       <c r="AX248" t="n">
         <v>283.0</v>
+      </c>
+      <c r="AY248" t="n">
+        <v>282.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B249" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C249" t="n">
         <v>1135.0</v>
@@ -38670,14 +39412,17 @@
       </c>
       <c r="AX249" t="n">
         <v>1801.0</v>
+      </c>
+      <c r="AY249" t="n">
+        <v>1802.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B250" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C250" t="n">
         <v>176.0</v>
@@ -38822,14 +39567,17 @@
       </c>
       <c r="AX250" t="n">
         <v>181.0</v>
+      </c>
+      <c r="AY250" t="n">
+        <v>187.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B251" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C251" t="n">
         <v>126.0</v>
@@ -38974,14 +39722,17 @@
       </c>
       <c r="AX251" t="n">
         <v>59.0</v>
+      </c>
+      <c r="AY251" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B252" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C252" t="n">
         <v>350.0</v>
@@ -39126,14 +39877,17 @@
       </c>
       <c r="AX252" t="n">
         <v>261.0</v>
+      </c>
+      <c r="AY252" t="n">
+        <v>265.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B253" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C253" t="n">
         <v>357.0</v>
@@ -39278,14 +40032,17 @@
       </c>
       <c r="AX253" t="n">
         <v>969.0</v>
+      </c>
+      <c r="AY253" t="n">
+        <v>1021.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B254" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C254" t="n">
         <v>112.0</v>
@@ -39430,14 +40187,17 @@
       </c>
       <c r="AX254" t="n">
         <v>16.0</v>
+      </c>
+      <c r="AY254" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B255" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C255" t="n">
         <v>68.0</v>
@@ -39582,14 +40342,17 @@
       </c>
       <c r="AX255" t="n">
         <v>29.0</v>
+      </c>
+      <c r="AY255" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B256" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C256" t="n">
         <v>180.0</v>
@@ -39734,14 +40497,17 @@
       </c>
       <c r="AX256" t="n">
         <v>275.0</v>
+      </c>
+      <c r="AY256" t="n">
+        <v>277.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B257" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C257" t="n">
         <v>35.0</v>
@@ -39886,14 +40652,17 @@
       </c>
       <c r="AX257" t="n">
         <v>135.0</v>
+      </c>
+      <c r="AY257" t="n">
+        <v>136.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B258" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C258"/>
       <c r="D258"/>
@@ -39943,13 +40712,14 @@
       <c r="AV258"/>
       <c r="AW258"/>
       <c r="AX258"/>
+      <c r="AY258"/>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B259" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C259"/>
       <c r="D259"/>
@@ -39999,13 +40769,14 @@
       <c r="AV259"/>
       <c r="AW259"/>
       <c r="AX259"/>
+      <c r="AY259"/>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B260" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C260"/>
       <c r="D260"/>
@@ -40055,13 +40826,14 @@
       <c r="AV260"/>
       <c r="AW260"/>
       <c r="AX260"/>
+      <c r="AY260"/>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B261" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C261"/>
       <c r="D261"/>
@@ -40111,13 +40883,14 @@
       <c r="AV261"/>
       <c r="AW261"/>
       <c r="AX261"/>
+      <c r="AY261"/>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B262" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C262"/>
       <c r="D262"/>
@@ -40167,13 +40940,14 @@
       <c r="AV262"/>
       <c r="AW262"/>
       <c r="AX262"/>
+      <c r="AY262"/>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B263" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C263"/>
       <c r="D263"/>
@@ -40223,13 +40997,14 @@
       <c r="AV263"/>
       <c r="AW263"/>
       <c r="AX263"/>
+      <c r="AY263"/>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B264" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C264"/>
       <c r="D264"/>
@@ -40279,13 +41054,14 @@
       <c r="AV264"/>
       <c r="AW264"/>
       <c r="AX264"/>
+      <c r="AY264"/>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B265" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C265"/>
       <c r="D265"/>
@@ -40335,13 +41111,14 @@
       <c r="AV265"/>
       <c r="AW265"/>
       <c r="AX265"/>
+      <c r="AY265"/>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B266" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C266"/>
       <c r="D266"/>
@@ -40391,13 +41168,14 @@
       <c r="AV266"/>
       <c r="AW266"/>
       <c r="AX266"/>
+      <c r="AY266"/>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B267" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C267"/>
       <c r="D267"/>
@@ -40447,13 +41225,14 @@
       <c r="AV267"/>
       <c r="AW267"/>
       <c r="AX267"/>
+      <c r="AY267"/>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B268" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C268"/>
       <c r="D268"/>
@@ -40503,13 +41282,14 @@
       <c r="AV268"/>
       <c r="AW268"/>
       <c r="AX268"/>
+      <c r="AY268"/>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B269" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C269"/>
       <c r="D269"/>
@@ -40559,13 +41339,14 @@
       <c r="AV269"/>
       <c r="AW269"/>
       <c r="AX269"/>
+      <c r="AY269"/>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B270" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C270"/>
       <c r="D270"/>
@@ -40615,13 +41396,14 @@
       <c r="AV270"/>
       <c r="AW270"/>
       <c r="AX270"/>
+      <c r="AY270"/>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B271" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C271"/>
       <c r="D271"/>
@@ -40671,13 +41453,14 @@
       <c r="AV271"/>
       <c r="AW271"/>
       <c r="AX271"/>
+      <c r="AY271"/>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B272" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C272"/>
       <c r="D272"/>
@@ -40727,13 +41510,14 @@
       <c r="AV272"/>
       <c r="AW272"/>
       <c r="AX272"/>
+      <c r="AY272"/>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B273" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C273"/>
       <c r="D273"/>
@@ -40783,13 +41567,14 @@
       <c r="AV273"/>
       <c r="AW273"/>
       <c r="AX273"/>
+      <c r="AY273"/>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B274" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C274"/>
       <c r="D274"/>
@@ -40839,13 +41624,14 @@
       <c r="AV274"/>
       <c r="AW274"/>
       <c r="AX274"/>
+      <c r="AY274"/>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B275" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C275"/>
       <c r="D275"/>
@@ -40895,13 +41681,14 @@
       <c r="AV275"/>
       <c r="AW275"/>
       <c r="AX275"/>
+      <c r="AY275"/>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B276" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C276"/>
       <c r="D276"/>
@@ -40951,13 +41738,14 @@
       <c r="AV276"/>
       <c r="AW276"/>
       <c r="AX276"/>
+      <c r="AY276"/>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B277" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C277"/>
       <c r="D277"/>
@@ -41007,13 +41795,14 @@
       <c r="AV277"/>
       <c r="AW277"/>
       <c r="AX277"/>
+      <c r="AY277"/>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B278" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C278"/>
       <c r="D278"/>
@@ -41063,13 +41852,14 @@
       <c r="AV278"/>
       <c r="AW278"/>
       <c r="AX278"/>
+      <c r="AY278"/>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B279" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C279"/>
       <c r="D279"/>
@@ -41119,6 +41909,7 @@
       <c r="AV279"/>
       <c r="AW279"/>
       <c r="AX279"/>
+      <c r="AY279"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
